--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3099879297790363</v>
+        <v>0.295453046058106</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3099879297790363, 'ngram_match_score': 0.10781947077144405, 'weighted_ngram_match_score': 0.13495616861048165, 'syntax_match_score': 0.5785714285714286, 'dataflow_match_score': 0.4186046511627907}</t>
+          <t>{'codebleu': 0.295453046058106, 'ngram_match_score': 0.10781947077144405, 'weighted_ngram_match_score': 0.13495616861048165, 'syntax_match_score': 0.5785714285714286, 'dataflow_match_score': 0.36046511627906974}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.295453046058106</v>
+        <v>0.3099879297790363</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.295453046058106, 'ngram_match_score': 0.10781947077144405, 'weighted_ngram_match_score': 0.13495616861048165, 'syntax_match_score': 0.5785714285714286, 'dataflow_match_score': 0.36046511627906974}</t>
+          <t>{'codebleu': 0.3099879297790363, 'ngram_match_score': 0.10781947077144405, 'weighted_ngram_match_score': 0.13495616861048165, 'syntax_match_score': 0.5785714285714286, 'dataflow_match_score': 0.4186046511627907}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
